--- a/NasteaTrvl/evidence.xlsx
+++ b/NasteaTrvl/evidence.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CRYPTO FAMILY\NODES\Game NFT\14. Watchers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CRYPTO FAMILY\NODES\Game NFT\---------14. Watchers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10605"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="45">
   <si>
     <t>TxHash</t>
   </si>
@@ -100,30 +100,6 @@
   </si>
   <si>
     <t>Community</t>
-  </si>
-  <si>
-    <t>team name</t>
-  </si>
-  <si>
-    <t>addr1</t>
-  </si>
-  <si>
-    <t>addr2</t>
-  </si>
-  <si>
-    <t>addr3</t>
-  </si>
-  <si>
-    <t>addr4</t>
-  </si>
-  <si>
-    <t>addr5</t>
-  </si>
-  <si>
-    <t>discord#1234</t>
-  </si>
-  <si>
-    <t>set none if no community</t>
   </si>
   <si>
     <t>DA64C4718C561035E5D599F428F5B88661E3C02D587FA7B2307DE1E735058FE0</t>
@@ -223,7 +199,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,11 +209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -275,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -285,9 +256,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -596,10 +564,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +576,7 @@
     <col min="2" max="2" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -640,56 +608,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1155,10 +1097,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1429,35 +1371,35 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1499,16 +1441,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1550,16 +1492,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1601,16 +1543,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1653,16 +1595,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
